--- a/biology/Zoologie/Echinocyamus/Echinocyamus.xlsx
+++ b/biology/Zoologie/Echinocyamus/Echinocyamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinocyamus est un genre d'oursins de la famille des Fibulariidae.
 </t>
@@ -511,12 +523,49 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits oursins irréguliers, de forme ovale, aplatis dorsalement. L'intérieur du test est renforcé par dix petits contreforts (ce qui les distingue des autres Fibulariidae). Le disque apical porte quatre gonopores, et quelques hydropores. Les pétales ambulacraires sont réduits mais distincts, et ouverts distalement. Le péristome est circulaire et enfoncé. Les pores à podia sont présents aussi bien aux ambulacres qu'aux interambulacres. Les interambulacres sont continus, avec des plaques basicoronales relativement petites, et des éléments interambulacraires légèrement plus importants que les ambulacraires. Le périprocte est situé sur la face orale, à mi-chemin entre le péristome et le bord du test[1].
-Ce genre très répandu est apparu au milieu de l'Éocène[1].
-Diagnose
-Il se distingue de Fibularia et de ses proches en ayant des contreforts radiaux internes. Sismondia en diffère en ayant des supports internes ramifiés et des plaques interambulacrées basicorales plus saillantes. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits oursins irréguliers, de forme ovale, aplatis dorsalement. L'intérieur du test est renforcé par dix petits contreforts (ce qui les distingue des autres Fibulariidae). Le disque apical porte quatre gonopores, et quelques hydropores. Les pétales ambulacraires sont réduits mais distincts, et ouverts distalement. Le péristome est circulaire et enfoncé. Les pores à podia sont présents aussi bien aux ambulacres qu'aux interambulacres. Les interambulacres sont continus, avec des plaques basicoronales relativement petites, et des éléments interambulacraires légèrement plus importants que les ambulacraires. Le périprocte est situé sur la face orale, à mi-chemin entre le péristome et le bord du test.
+Ce genre très répandu est apparu au milieu de l'Éocène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Echinocyamus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocyamus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diagnose</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se distingue de Fibularia et de ses proches en ayant des contreforts radiaux internes. Sismondia en diffère en ayant des supports internes ramifiés et des plaques interambulacrées basicorales plus saillantes. 
 Echinocyamus provectus de Meijere, 1902 a des supports internes ramifiés et est probablement un Peronella juvénile. 
 Ole Theodor Jensen Mortensen (1948) a reconnu 18 espèces existantes et il existe en outre un certain nombre d'espèces fossiles de statut incertain. L'espèce la plus ancienne basée sur un excellent matériel est Echinocyamus bisexus, Kier du Moyen Eocène de Géorgie, USA, décrite par P.M. Kier (1968). 
 Mironov &amp; Sagaidachny (1984) donnent un compte rendu détaillé des espèces modernes. Zachos (2005) a discuté de la distribution de ce taxon dans le sud-est des États-Unis pendant l'Éocène.
@@ -525,36 +574,38 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Echinocyamus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Echinocyamus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (28 octobre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (28 octobre 2013) :
 Echinocyamus grandiporus (Mortensen, 1907)
 Echinocyamus pusillus (Müller, 1776)
-Selon World Register of Marine Species                               (29 mars 2014)[3] :
+Selon World Register of Marine Species                               (29 mars 2014) :
 Echinocyamus avilensis Lambert, 1931e †
 Echinocyamus basseae Lambert, 1936c †
 Echinocyamus bisexus Kier, 1968b †
@@ -601,31 +652,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Echinocyamus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Echinocyamus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste complémentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Echinocyamus lebescontei Bazin, 1883 †
 Echinocyamus lowraliensis Srivastava et al. 2009 †</t>
